--- a/pred_ohlcv/54_21/2020-01-22 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1339733.62033293</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1242888.91073293</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1440335.17163293</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1365086.98883293</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1362086.98883293</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1385448.75743293</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-202507127.5426208</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-202507155.1288277</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-202507168.9486277</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-202507148.9486277</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-202521176.5195561</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-202551553.3216561</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-202546870.3919562</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-202518923.8436444</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-202977343.5575444</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-202977343.5575444</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-203898491.1118444</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-203893518.3949444</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-203852472.0612864</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-203927492.0717864</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-203922852.5981864</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-203922892.5981864</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-203802381.4595864</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-203899019.7958864</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-203888852.6212864</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-203910989.9582864</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-203883067.9255631</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-203878909.9171631</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-203817784.4106963</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-203842784.4106963</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-203826635.2076963</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-204247718.9251963</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-204237923.2056963</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-204224120.9251963</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-204246189.2388963</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-204247193.9018964</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-204254188.3033964</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-204254171.6621538</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1339733.62033293</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1242888.91073293</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1440335.17163293</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1365086.98883293</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1362086.98883293</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1385448.75743293</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-202507127.5426208</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-202507155.1288277</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-202507168.9486277</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-202507148.9486277</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-202521176.5195561</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-202551553.3216561</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-202546870.3919562</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-202584199.648745</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-202542697.798145</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-202557823.431045</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-202533932.911545</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-202562433.3313451</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-202568917.3910451</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-202563355.0628451</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-202518923.8436444</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-203898491.1118444</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-203893518.3949444</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-203852472.0612864</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-203927492.0717864</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-203922852.5981864</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-203922892.5981864</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-203802381.4595864</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-203883067.9255631</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-203878909.9171631</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-203878839.9171631</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-203871917.5767631</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-203877936.7413642</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-203935441.4111579</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-203935441.4111579</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-203935898.3694738</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-203935829.0078752</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-203935829.0078752</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-203927265.4617738</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-203920850.9287739</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-203908961.6573738</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-203909515.6573738</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-203895680.5715963</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-203902612.1678963</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-203817784.4106963</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-203842784.4106963</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-203826635.2076963</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-203860887.2911963</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-203832842.4334963</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-203830775.8434963</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-203896121.7218963</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-203896121.7218963</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-203873445.8797963</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-203901233.4344963</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-203928998.1035963</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-204029482.7334963</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-204150033.6122963</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-204149326.5810963</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-204175128.6622963</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-204193019.8715963</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-204247718.9251963</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-204237923.2056963</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-204224120.9251963</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-204246189.2388963</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-204247389.5343964</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-204247193.9018964</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-204254188.3033964</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-204254171.6621538</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-204256013.0937538</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-204216645.9903539</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-204213499.1401539</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-204211047.1669539</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-203891478.6363639</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-203915959.3834639</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-203914906.3834639</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-203945592.1183639</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-203948321.7075639</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-203948284.7951639</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
